--- a/1  临时/3 公式/color.xlsx
+++ b/1  临时/3 公式/color.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="43">
   <si>
     <t>color-R</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,10 +115,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>585858</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>D8E8F8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -167,21 +163,25 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#004193</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ED243B</t>
   </si>
   <si>
     <t>94ADFF</t>
   </si>
   <si>
-    <t>63B8FF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>63B8FF</t>
+    <t>00ff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#008B45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#2E8B57</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -189,7 +189,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,13 +233,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="8">
@@ -298,7 +291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -332,7 +325,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -640,7 +632,7 @@
   <dimension ref="A1:T27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -659,16 +651,16 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="M1" s="1"/>
       <c r="O1" s="7" t="s">
@@ -753,7 +745,7 @@
         <v>808080</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I3" s="1">
         <f>INT(HEX2DEC(LEFT(RIGHT($H3,6),2))/2^3)</f>
@@ -776,7 +768,7 @@
         <v>33808</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P3">
         <f t="shared" ref="P3:P9" si="2">HEX2DEC(LEFT(RIGHT("000000"&amp;$O3,6),2))</f>
@@ -820,7 +812,7 @@
         <v>F000</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I4" s="1">
         <f t="shared" ref="I4:I13" si="11">INT(HEX2DEC(LEFT(RIGHT($H4,6),2))/2^3)</f>
@@ -843,7 +835,7 @@
         <v>65535</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P4">
         <f t="shared" si="2"/>
@@ -910,7 +902,7 @@
         <v>128</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P5">
         <f t="shared" si="2"/>
@@ -954,7 +946,7 @@
         <v>0E00</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" si="11"/>
@@ -973,11 +965,11 @@
         <v>18</v>
       </c>
       <c r="M6" s="11">
-        <f t="shared" ref="M6:M11" si="14">+I6*2^11+J6*2^5+K6</f>
+        <f t="shared" ref="M6:M13" si="14">+I6*2^11+J6*2^5+K6</f>
         <v>24</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P6">
         <f t="shared" si="2"/>
@@ -1044,7 +1036,7 @@
         <v>61213</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P7">
         <f t="shared" si="2"/>
@@ -1111,7 +1103,7 @@
         <v>65535</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P8">
         <f t="shared" si="2"/>
@@ -1178,7 +1170,7 @@
         <v>23243</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P9" s="8">
         <f t="shared" si="2"/>
@@ -1221,35 +1213,35 @@
         <f t="shared" ref="F10" si="15">DEC2HEX(C10*2^3)&amp;DEC2HEX(D10*2^2)&amp;DEC2HEX(E10*2^3)</f>
         <v>080</v>
       </c>
-      <c r="H10" s="9" t="s">
-        <v>25</v>
+      <c r="H10" t="s">
+        <v>40</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" si="11"/>
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="J10" s="1">
         <f t="shared" si="12"/>
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
         <f t="shared" si="13"/>
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="L10" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>5ACB</v>
+        <v>F81F</v>
       </c>
       <c r="M10" s="11">
         <f t="shared" si="14"/>
-        <v>23243</v>
+        <v>63519</v>
       </c>
       <c r="O10" s="9"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F11" s="12"/>
-      <c r="H11" s="9" t="s">
-        <v>38</v>
+      <c r="H11" t="s">
+        <v>39</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" si="11"/>
@@ -1257,42 +1249,45 @@
       </c>
       <c r="J11" s="1">
         <f t="shared" si="12"/>
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="K11" s="1">
         <f t="shared" si="13"/>
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="L11" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>212</v>
+        <v>7FF</v>
       </c>
       <c r="M11" s="11">
         <f t="shared" si="14"/>
-        <v>530</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I12" s="1">
         <f t="shared" si="11"/>
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
         <f t="shared" si="12"/>
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="K12" s="1">
         <f t="shared" si="13"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L12" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>E927</v>
-      </c>
-      <c r="M12" s="1"/>
+        <v>448</v>
+      </c>
+      <c r="M12" s="11">
+        <f t="shared" si="14"/>
+        <v>1096</v>
+      </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H13" t="s">
@@ -1300,36 +1295,30 @@
       </c>
       <c r="I13" s="1">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J13" s="1">
         <f t="shared" si="12"/>
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="K13" s="1">
         <f t="shared" si="13"/>
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="L13" s="12" t="str">
         <f t="shared" ref="L13" si="16">DEC2HEX(I13*2^11+J13*2^5+K13)</f>
-        <v>65DF</v>
-      </c>
-      <c r="M13" s="1"/>
+        <v>2C4A</v>
+      </c>
+      <c r="M13" s="11">
+        <f t="shared" si="14"/>
+        <v>11338</v>
+      </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="I14" s="1">
-        <v>1</v>
-      </c>
-      <c r="J14" s="1">
-        <v>2</v>
-      </c>
-      <c r="K14" s="1">
-        <v>1</v>
-      </c>
-      <c r="L14" s="12" t="str">
-        <f>DEC2HEX(I14*2^11+J14*2^5+K14)</f>
-        <v>841</v>
-      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -1339,10 +1328,7 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:19" ht="15" x14ac:dyDescent="0.3">
-      <c r="H16" s="13" t="s">
-        <v>41</v>
-      </c>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -2140,7 +2126,7 @@
         <v>59</v>
       </c>
       <c r="K16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L16" s="1"/>
     </row>
@@ -2155,7 +2141,7 @@
         <v>255</v>
       </c>
       <c r="K17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L17" s="1"/>
     </row>
